--- a/2020-2021/PCB/PCB_Version_2/BOM_PCB_VERSION_2.xlsx
+++ b/2020-2021/PCB/PCB_Version_2/BOM_PCB_VERSION_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rjvan\Documents\GitHub\intelliflow\2020-2021\PCB\PCB_Version_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA40353C-EDB7-488A-948F-40507AE3C033}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE526BBD-AF92-4B0E-8400-95067A9D0918}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3645" yWindow="2415" windowWidth="21600" windowHeight="11505" xr2:uid="{5999F184-5D91-49CA-8EEC-480CE4902DE2}"/>
   </bookViews>
@@ -126,15 +126,6 @@
     <t>595-DAC70504RTET</t>
   </si>
   <si>
-    <t>C1 (1µF)</t>
-  </si>
-  <si>
-    <t>C2/C3 (0,1µF)</t>
-  </si>
-  <si>
-    <t>C4 (1nF)</t>
-  </si>
-  <si>
     <t>SMD 0805</t>
   </si>
   <si>
@@ -201,9 +192,6 @@
     <t>Header Set</t>
   </si>
   <si>
-    <t>R1/R2/R3/R4/R5 (47Ω)</t>
-  </si>
-  <si>
     <t>https://www.mouser.be/ProductDetail/Panasonic/ERA-6VEB47R0V?qs=sGAEpiMZZMtlubZbdhIBIF3tu7NV9mhCr2%252BuU1qq3xs%3D</t>
   </si>
   <si>
@@ -235,6 +223,18 @@
   </si>
   <si>
     <t>Total Price:</t>
+  </si>
+  <si>
+    <t>Capaciteit (1µF)</t>
+  </si>
+  <si>
+    <t>Capaciteit (0,1µF)</t>
+  </si>
+  <si>
+    <t>Capaciteit (1nF)</t>
+  </si>
+  <si>
+    <t>Weerstand (47Ω)</t>
   </si>
 </sst>
 </file>
@@ -643,7 +643,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,7 +682,7 @@
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -710,7 +710,7 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -738,7 +738,7 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -766,7 +766,7 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -794,7 +794,7 @@
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -822,7 +822,7 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -850,21 +850,21 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
         <v>43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
       </c>
       <c r="E8" s="1">
         <v>0.91</v>
@@ -878,21 +878,21 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
         <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
       </c>
       <c r="E9" s="1">
         <v>1.37</v>
@@ -906,21 +906,21 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E10" s="1">
         <v>1.37</v>
@@ -934,21 +934,21 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E11" s="1">
         <v>1.63</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -973,16 +973,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1">
         <v>0.75</v>
@@ -996,21 +996,21 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E14" s="1">
         <v>0.44</v>
@@ -1024,21 +1024,21 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E15" s="1">
         <v>1.59</v>
@@ -1052,21 +1052,21 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E16" s="1">
         <v>0.59</v>
@@ -1080,12 +1080,12 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G19" s="10">
         <f>SUM(G2:G16)</f>

--- a/2020-2021/PCB/PCB_Version_2/BOM_PCB_VERSION_2.xlsx
+++ b/2020-2021/PCB/PCB_Version_2/BOM_PCB_VERSION_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rjvan\Documents\GitHub\intelliflow\2020-2021\PCB\PCB_Version_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11701130\Desktop\PEm\intelliflow\2020-2021\PCB\PCB_Version_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE526BBD-AF92-4B0E-8400-95067A9D0918}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20F70D6-9D7D-4377-B72A-69350564DC68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="2415" windowWidth="21600" windowHeight="11505" xr2:uid="{5999F184-5D91-49CA-8EEC-480CE4902DE2}"/>
+    <workbookView xWindow="-21720" yWindow="2460" windowWidth="21840" windowHeight="13140" xr2:uid="{5999F184-5D91-49CA-8EEC-480CE4902DE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
   <si>
     <t>Beschrijving</t>
   </si>
@@ -156,18 +156,9 @@
     <t xml:space="preserve">80-C0805X102F5G </t>
   </si>
   <si>
-    <t>https://www.mouser.be/ProductDetail/Texas-Instruments/TL082BCDR?qs=odmYgEirbwwucx786ejFSg%3D%3D</t>
-  </si>
-  <si>
     <t>OP-AMP</t>
   </si>
   <si>
-    <t xml:space="preserve">TL082BCDR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">595-TL082BCDR </t>
-  </si>
-  <si>
     <t>https://www.mouser.be/ProductDetail/Nidec-Copal/CES-0402MC?qs=XeJtXLiO41Q05topIs8SoQ%3D%3D</t>
   </si>
   <si>
@@ -235,6 +226,38 @@
   </si>
   <si>
     <t>Weerstand (47Ω)</t>
+  </si>
+  <si>
+    <t>LTC6241CS8#PBF</t>
+  </si>
+  <si>
+    <t>https://www.mouser.be/ProductDetail/?qs=hVkxg5c3xu%252BfRCzMDOZ5vQ%3D%3D</t>
+  </si>
+  <si>
+    <t>584-LTC6241CS8#PBF</t>
+  </si>
+  <si>
+    <r>
+      <t>Weerstand (500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ω)</t>
+    </r>
+  </si>
+  <si>
+    <t>660-RN732ATTD5000B25</t>
+  </si>
+  <si>
+    <t>RN732ATTD5000B25</t>
+  </si>
+  <si>
+    <t>https://www.mouser.be/ProductDetail/KOA-Speer/RN732ATTD5000B25?qs=sGAEpiMZZMtlubZbdhIBIFsbc394gO9GFKU7OCwB87Q%3D</t>
   </si>
 </sst>
 </file>
@@ -244,7 +267,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$EUR]\ #,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +302,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -307,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -325,10 +360,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -344,7 +383,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -643,14 +682,14 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="24.85546875" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
     <col min="6" max="7" width="18.42578125" customWidth="1"/>
@@ -682,7 +721,7 @@
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -710,7 +749,7 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -738,7 +777,7 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -766,7 +805,7 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -794,7 +833,7 @@
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -822,7 +861,7 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -850,49 +889,49 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
+        <v>65</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="E8" s="1">
-        <v>0.91</v>
+        <v>2.64</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" ref="G8" si="1">E8*F8</f>
-        <v>0.91</v>
+        <v>2.64</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
         <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
       </c>
       <c r="E9" s="1">
         <v>1.37</v>
@@ -906,21 +945,21 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1">
         <v>1.37</v>
@@ -934,21 +973,21 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
         <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
       </c>
       <c r="E11" s="1">
         <v>1.63</v>
@@ -962,7 +1001,7 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -973,7 +1012,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -1001,7 +1040,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
@@ -1029,7 +1068,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
@@ -1057,16 +1096,16 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E16" s="1">
         <v>0.59</v>
@@ -1075,7 +1114,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" ref="G16" si="8">E16*F16</f>
+        <f t="shared" ref="G16:G17" si="8">E16*F16</f>
         <v>2.9499999999999997</v>
       </c>
       <c r="H16" s="1"/>
@@ -1083,13 +1122,40 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="8"/>
+        <v>1.4279999999999999</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G19" s="10">
-        <f>SUM(G2:G16)</f>
-        <v>46.42</v>
+        <f>SUM(G2:G17)</f>
+        <v>49.578000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1164,10 @@
     <hyperlink ref="C2" r:id="rId1" location="description" xr:uid="{8D06DD26-70E7-4AF9-B0A0-81AB27F2CFEB}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{CE6BE5A4-0CCE-4CFC-A504-483A76E67CC9}"/>
     <hyperlink ref="C9" r:id="rId3" xr:uid="{F4743BE3-3A8D-47E8-AC8C-051509EAF94B}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{A2C43423-BC5B-4670-8F41-456E8A570AAE}"/>
+    <hyperlink ref="C16" r:id="rId5" xr:uid="{B4DF5C32-D464-4CDA-8AE1-BE6309CED587}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
--- a/2020-2021/PCB/PCB_Version_2/BOM_PCB_VERSION_2.xlsx
+++ b/2020-2021/PCB/PCB_Version_2/BOM_PCB_VERSION_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11701130\Desktop\PEm\intelliflow\2020-2021\PCB\PCB_Version_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20F70D6-9D7D-4377-B72A-69350564DC68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB3AAAC-474E-4F4C-91AC-6D0CB38B670B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="2460" windowWidth="21840" windowHeight="13140" xr2:uid="{5999F184-5D91-49CA-8EEC-480CE4902DE2}"/>
   </bookViews>
@@ -195,15 +195,6 @@
     <t>DC-Power socket</t>
   </si>
   <si>
-    <t>https://www.mouser.be/ProductDetail/Switchcraft/RAPC712BKZ?qs=vLWxofP3U2y1tV3BP2KpWw%3D%3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAPC712BKZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">502-RAPC712BKZ </t>
-  </si>
-  <si>
     <t>IC</t>
   </si>
   <si>
@@ -258,6 +249,15 @@
   </si>
   <si>
     <t>https://www.mouser.be/ProductDetail/KOA-Speer/RN732ATTD5000B25?qs=sGAEpiMZZMtlubZbdhIBIFsbc394gO9GFKU7OCwB87Q%3D</t>
+  </si>
+  <si>
+    <t>PJ-002BH</t>
+  </si>
+  <si>
+    <t>490-PJ-002BH</t>
+  </si>
+  <si>
+    <t>https://www.mouser.be/ProductDetail/CUI-Devices/PJ-002BH?qs=WyjlAZoYn51nOX1h%2FqpLlg%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -682,7 +682,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,7 +721,7 @@
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -749,7 +749,7 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -777,7 +777,7 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -805,7 +805,7 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -833,7 +833,7 @@
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -861,7 +861,7 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -889,7 +889,7 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -897,13 +897,13 @@
         <v>40</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E8" s="1">
         <v>2.64</v>
@@ -917,7 +917,7 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -945,7 +945,7 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -973,35 +973,35 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
-      <c r="B11" t="s">
-        <v>54</v>
+      <c r="B11" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s">
-        <v>55</v>
+        <v>70</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="E11" s="1">
-        <v>1.63</v>
+        <v>0.627</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" ref="G11" si="4">E11*F11</f>
-        <v>1.63</v>
+        <v>0.627</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1012,7 +1012,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
@@ -1124,16 +1124,16 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" t="s">
-        <v>70</v>
-      </c>
       <c r="D17" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E17" s="1">
         <v>0.71399999999999997</v>
@@ -1151,11 +1151,11 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G19" s="10">
         <f>SUM(G2:G17)</f>
-        <v>49.578000000000003</v>
+        <v>48.575000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1164,10 +1164,9 @@
     <hyperlink ref="C2" r:id="rId1" location="description" xr:uid="{8D06DD26-70E7-4AF9-B0A0-81AB27F2CFEB}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{CE6BE5A4-0CCE-4CFC-A504-483A76E67CC9}"/>
     <hyperlink ref="C9" r:id="rId3" xr:uid="{F4743BE3-3A8D-47E8-AC8C-051509EAF94B}"/>
-    <hyperlink ref="C11" r:id="rId4" xr:uid="{A2C43423-BC5B-4670-8F41-456E8A570AAE}"/>
-    <hyperlink ref="C16" r:id="rId5" xr:uid="{B4DF5C32-D464-4CDA-8AE1-BE6309CED587}"/>
+    <hyperlink ref="C16" r:id="rId4" xr:uid="{B4DF5C32-D464-4CDA-8AE1-BE6309CED587}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>